--- a/data/LIGHT4DEAF_Neurocognition_Avril_2020_1_FULL_ADULTES_20200504.xlsx
+++ b/data/LIGHT4DEAF_Neurocognition_Avril_2020_1_FULL_ADULTES_20200504.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marc/py/_stat/light4deaf/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32186FB8-9C22-F846-BF1F-28409C273740}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE1C9CB-5301-3049-911C-44398672ACFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="460" windowWidth="25020" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="400" yWindow="460" windowWidth="25020" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LIGHT4DEAF_Neurocognition_Avril" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3785" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3785" uniqueCount="650">
   <si>
     <t xml:space="preserve"> ID_CENTRE</t>
   </si>
@@ -1615,9 +1615,6 @@
     <t>3F EC D6 9D B6</t>
   </si>
   <si>
-    <t>Nombre d'années d'étude (‡ partir du CP, ex : BAC = 12 années)</t>
-  </si>
-  <si>
     <t>Interprète LSF</t>
   </si>
   <si>
@@ -1922,6 +1919,60 @@
   </si>
   <si>
     <t>Commentaires WAIS</t>
+  </si>
+  <si>
+    <t>TMT B (nombre erreur(s)) Note brute</t>
+  </si>
+  <si>
+    <t>TMT B-A (temps) Note brute</t>
+  </si>
+  <si>
+    <t>TMT B-A (nombre erreur(s)) Note brute</t>
+  </si>
+  <si>
+    <t>TMT B (temps) Note brute</t>
+  </si>
+  <si>
+    <t>TMT A (temps) Note brute</t>
+  </si>
+  <si>
+    <t>TMT B (nombre erreur(s)) écart type</t>
+  </si>
+  <si>
+    <t>TMT B (nombre erreur(s)) Rang percentile</t>
+  </si>
+  <si>
+    <t>TMT B (temps) Rang percentile</t>
+  </si>
+  <si>
+    <t>TMT A (temps) écart type</t>
+  </si>
+  <si>
+    <t>TMT A (temps) Rang percentile</t>
+  </si>
+  <si>
+    <t>TMT B-A (temps) écart type</t>
+  </si>
+  <si>
+    <t>TMT B-A (temps) Rang percentile</t>
+  </si>
+  <si>
+    <t>TMT B-A (nombre erreur(s)) écart type</t>
+  </si>
+  <si>
+    <t>TMT B-A (nombre erreur(s)) Rang percentile</t>
+  </si>
+  <si>
+    <t>TMT Commentaire</t>
+  </si>
+  <si>
+    <t>TMT Autre commentaire</t>
+  </si>
+  <si>
+    <t>Nombre d'années d'études</t>
+  </si>
+  <si>
+    <t>TMT B (temps) écart type</t>
   </si>
 </sst>
 </file>
@@ -2787,13 +2838,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IB239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
-      <selection activeCell="BX2" sqref="BX2"/>
+    <sheetView tabSelected="1" topLeftCell="CZ1" workbookViewId="0">
+      <selection activeCell="DJ1" sqref="DJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="37" max="37" width="23.1640625" customWidth="1"/>
+    <col min="33" max="33" width="20.6640625" customWidth="1"/>
+    <col min="34" max="34" width="28" customWidth="1"/>
+    <col min="35" max="35" width="14.83203125" customWidth="1"/>
+    <col min="36" max="36" width="21.83203125" customWidth="1"/>
+    <col min="37" max="37" width="25.1640625" customWidth="1"/>
+    <col min="38" max="38" width="22" customWidth="1"/>
     <col min="42" max="42" width="42.1640625" customWidth="1"/>
     <col min="44" max="44" width="17" customWidth="1"/>
     <col min="45" max="45" width="17.1640625" customWidth="1"/>
@@ -2811,6 +2867,11 @@
     <col min="73" max="73" width="22.6640625" customWidth="1"/>
     <col min="76" max="76" width="19.6640625" customWidth="1"/>
     <col min="77" max="77" width="22.83203125" customWidth="1"/>
+    <col min="110" max="110" width="13.5" customWidth="1"/>
+    <col min="111" max="111" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="23" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:236" x14ac:dyDescent="0.2">
@@ -2854,13 +2915,13 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>534</v>
+      </c>
+      <c r="O1" t="s">
         <v>535</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>536</v>
-      </c>
-      <c r="P1" t="s">
-        <v>537</v>
       </c>
       <c r="Q1" t="s">
         <v>13</v>
@@ -2875,76 +2936,76 @@
         <v>16</v>
       </c>
       <c r="U1" t="s">
+        <v>537</v>
+      </c>
+      <c r="V1" t="s">
         <v>538</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>539</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>540</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>541</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>542</v>
       </c>
       <c r="Z1" t="s">
         <v>17</v>
       </c>
       <c r="AA1" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB1" t="s">
         <v>543</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>544</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>545</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>546</v>
       </c>
       <c r="AE1" t="s">
         <v>18</v>
       </c>
       <c r="AF1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AG1" t="s">
         <v>19</v>
       </c>
       <c r="AH1" t="s">
+        <v>531</v>
+      </c>
+      <c r="AI1" t="s">
         <v>532</v>
       </c>
-      <c r="AI1" t="s">
-        <v>533</v>
-      </c>
       <c r="AJ1" t="s">
+        <v>547</v>
+      </c>
+      <c r="AK1" t="s">
         <v>548</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
+        <v>530</v>
+      </c>
+      <c r="AM1" t="s">
         <v>549</v>
       </c>
-      <c r="AL1" t="s">
-        <v>531</v>
-      </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>550</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>551</v>
       </c>
       <c r="AO1" t="s">
         <v>20</v>
       </c>
       <c r="AP1" t="s">
-        <v>530</v>
+        <v>648</v>
       </c>
       <c r="AQ1" s="5" t="s">
         <v>21</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AS1" s="5" t="s">
         <v>22</v>
@@ -2959,19 +3020,19 @@
         <v>25</v>
       </c>
       <c r="AW1" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AX1" s="5" t="s">
         <v>26</v>
       </c>
       <c r="AY1" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>616</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>617</v>
       </c>
       <c r="BB1" s="5" t="s">
         <v>28</v>
@@ -2983,40 +3044,40 @@
         <v>30</v>
       </c>
       <c r="BE1" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="BF1" s="5" t="s">
         <v>31</v>
       </c>
       <c r="BG1" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="BH1" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BJ1" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="BK1" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="BL1" s="5" t="s">
         <v>622</v>
-      </c>
-      <c r="BJ1" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="BK1" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="BL1" s="5" t="s">
-        <v>623</v>
       </c>
       <c r="BM1" s="5" t="s">
         <v>32</v>
       </c>
       <c r="BN1" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="BO1" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="BP1" s="5" t="s">
         <v>625</v>
-      </c>
-      <c r="BP1" s="5" t="s">
-        <v>626</v>
       </c>
       <c r="BQ1" s="5" t="s">
         <v>33</v>
@@ -3025,31 +3086,31 @@
         <v>34</v>
       </c>
       <c r="BS1" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="BT1" s="5" t="s">
         <v>35</v>
       </c>
       <c r="BU1" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="BV1" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="BV1" s="5" t="s">
+      <c r="BW1" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="BW1" s="5" t="s">
+      <c r="BX1" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="BY1" s="5" t="s">
         <v>630</v>
-      </c>
-      <c r="BX1" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="BY1" s="5" t="s">
-        <v>631</v>
       </c>
       <c r="BZ1" s="3" t="s">
         <v>38</v>
       </c>
       <c r="CA1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="CB1" t="s">
         <v>22</v>
@@ -3136,67 +3197,67 @@
         <v>43</v>
       </c>
       <c r="DD1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="DE1" t="s">
         <v>22</v>
       </c>
       <c r="DF1" t="s">
-        <v>44</v>
+        <v>636</v>
       </c>
       <c r="DG1" t="s">
-        <v>40</v>
+        <v>640</v>
       </c>
       <c r="DH1" t="s">
-        <v>27</v>
+        <v>641</v>
       </c>
       <c r="DI1" t="s">
-        <v>44</v>
+        <v>635</v>
       </c>
       <c r="DJ1" t="s">
-        <v>40</v>
+        <v>649</v>
       </c>
       <c r="DK1" t="s">
-        <v>27</v>
+        <v>639</v>
       </c>
       <c r="DL1" t="s">
-        <v>44</v>
+        <v>632</v>
       </c>
       <c r="DM1" t="s">
-        <v>40</v>
+        <v>637</v>
       </c>
       <c r="DN1" t="s">
-        <v>27</v>
+        <v>638</v>
       </c>
       <c r="DO1" t="s">
-        <v>44</v>
+        <v>633</v>
       </c>
       <c r="DP1" t="s">
-        <v>40</v>
+        <v>642</v>
       </c>
       <c r="DQ1" t="s">
-        <v>27</v>
+        <v>643</v>
       </c>
       <c r="DR1" t="s">
-        <v>44</v>
+        <v>634</v>
       </c>
       <c r="DS1" t="s">
-        <v>40</v>
+        <v>644</v>
       </c>
       <c r="DT1" t="s">
-        <v>27</v>
+        <v>645</v>
       </c>
       <c r="DU1" t="s">
-        <v>41</v>
+        <v>646</v>
       </c>
       <c r="DV1" t="s">
-        <v>37</v>
+        <v>647</v>
       </c>
       <c r="DW1" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DX1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="DY1" t="s">
         <v>22</v>
@@ -3331,7 +3392,7 @@
         <v>50</v>
       </c>
       <c r="FQ1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="FR1" t="s">
         <v>22</v>
@@ -3415,40 +3476,40 @@
         <v>37</v>
       </c>
       <c r="GS1" t="s">
+        <v>554</v>
+      </c>
+      <c r="GT1" t="s">
         <v>555</v>
       </c>
-      <c r="GT1" t="s">
+      <c r="GU1" t="s">
         <v>556</v>
-      </c>
-      <c r="GU1" t="s">
-        <v>557</v>
       </c>
       <c r="GV1" t="s">
         <v>54</v>
       </c>
       <c r="GW1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="GX1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="GY1" t="s">
         <v>36</v>
       </c>
       <c r="GZ1" t="s">
+        <v>558</v>
+      </c>
+      <c r="HA1" t="s">
         <v>559</v>
       </c>
-      <c r="HA1" t="s">
+      <c r="HB1" t="s">
         <v>560</v>
-      </c>
-      <c r="HB1" t="s">
-        <v>561</v>
       </c>
       <c r="HC1" t="s">
         <v>55</v>
       </c>
       <c r="HD1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="HE1" t="s">
         <v>56</v>
@@ -3457,16 +3518,16 @@
         <v>57</v>
       </c>
       <c r="HG1" t="s">
+        <v>562</v>
+      </c>
+      <c r="HH1" t="s">
         <v>563</v>
-      </c>
-      <c r="HH1" t="s">
-        <v>564</v>
       </c>
       <c r="HI1" t="s">
         <v>58</v>
       </c>
       <c r="HJ1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="HK1" t="s">
         <v>41</v>
@@ -3481,16 +3542,16 @@
         <v>57</v>
       </c>
       <c r="HO1" t="s">
+        <v>562</v>
+      </c>
+      <c r="HP1" t="s">
         <v>563</v>
-      </c>
-      <c r="HP1" t="s">
-        <v>564</v>
       </c>
       <c r="HQ1" t="s">
         <v>58</v>
       </c>
       <c r="HR1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="HS1" t="s">
         <v>41</v>
@@ -3499,28 +3560,28 @@
         <v>59</v>
       </c>
       <c r="HU1" t="s">
+        <v>565</v>
+      </c>
+      <c r="HV1" t="s">
         <v>566</v>
       </c>
-      <c r="HV1" t="s">
+      <c r="HW1" t="s">
         <v>567</v>
       </c>
-      <c r="HW1" t="s">
+      <c r="HX1" t="s">
         <v>568</v>
       </c>
-      <c r="HX1" t="s">
+      <c r="HY1" t="s">
         <v>569</v>
       </c>
-      <c r="HY1" t="s">
+      <c r="HZ1" t="s">
         <v>570</v>
       </c>
-      <c r="HZ1" t="s">
+      <c r="IA1" t="s">
         <v>571</v>
       </c>
-      <c r="IA1" t="s">
+      <c r="IB1" t="s">
         <v>572</v>
-      </c>
-      <c r="IB1" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="2" spans="1:236" x14ac:dyDescent="0.2">
@@ -3730,7 +3791,7 @@
         <v>64</v>
       </c>
       <c r="Z4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA4" t="s">
         <v>64</v>
@@ -3751,10 +3812,10 @@
         <v>73</v>
       </c>
       <c r="AH4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ4" t="s">
         <v>74</v>
@@ -3772,7 +3833,7 @@
         <v>75</v>
       </c>
       <c r="AO4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AP4">
         <v>17</v>
@@ -3922,7 +3983,7 @@
         <v>64</v>
       </c>
       <c r="DY4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="FP4" t="s">
         <v>70</v>
@@ -4215,7 +4276,7 @@
         <v>64</v>
       </c>
       <c r="Z8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA8" t="s">
         <v>64</v>
@@ -4242,7 +4303,7 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AL8" t="s">
         <v>70</v>
@@ -4449,7 +4510,7 @@
         <v>16</v>
       </c>
       <c r="GR8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="GS8" t="s">
         <v>64</v>
@@ -4506,7 +4567,7 @@
         <v>59</v>
       </c>
       <c r="HX8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="HY8" s="1">
         <v>43336</v>
@@ -4693,7 +4754,7 @@
         <v>64</v>
       </c>
       <c r="Z10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA10" t="s">
         <v>64</v>
@@ -4723,7 +4784,7 @@
         <v>74</v>
       </c>
       <c r="AK10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AL10" t="s">
         <v>64</v>
@@ -4957,7 +5018,7 @@
         <v>64</v>
       </c>
       <c r="DY10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="FP10" t="s">
         <v>70</v>
@@ -5002,13 +5063,13 @@
         <v>70</v>
       </c>
       <c r="HN10" t="s">
+        <v>579</v>
+      </c>
+      <c r="HP10" t="s">
+        <v>64</v>
+      </c>
+      <c r="HQ10" t="s">
         <v>580</v>
-      </c>
-      <c r="HP10" t="s">
-        <v>64</v>
-      </c>
-      <c r="HQ10" t="s">
-        <v>581</v>
       </c>
       <c r="HR10" t="s">
         <v>117</v>
@@ -5385,7 +5446,7 @@
         <v>64</v>
       </c>
       <c r="Z14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA14" t="s">
         <v>64</v>
@@ -5427,7 +5488,7 @@
         <v>129</v>
       </c>
       <c r="AO14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AP14">
         <v>12</v>
@@ -5577,7 +5638,7 @@
         <v>64</v>
       </c>
       <c r="DY14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="FP14" t="s">
         <v>70</v>
@@ -5791,10 +5852,10 @@
         <v>86</v>
       </c>
       <c r="AJ16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AK16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AL16" t="s">
         <v>64</v>
@@ -5806,7 +5867,7 @@
         <v>75</v>
       </c>
       <c r="AO16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AP16">
         <v>17</v>
@@ -6004,7 +6065,7 @@
         <v>64</v>
       </c>
       <c r="DY16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="FP16" t="s">
         <v>70</v>
@@ -6275,7 +6336,7 @@
         <v>64</v>
       </c>
       <c r="Z18" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA18" t="s">
         <v>64</v>
@@ -6296,10 +6357,10 @@
         <v>73</v>
       </c>
       <c r="AH18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ18" t="s">
         <v>74</v>
@@ -6317,7 +6378,7 @@
         <v>75</v>
       </c>
       <c r="AO18" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AP18">
         <v>14</v>
@@ -6657,7 +6718,7 @@
         <v>64</v>
       </c>
       <c r="Z20" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA20" t="s">
         <v>64</v>
@@ -6681,10 +6742,10 @@
         <v>86</v>
       </c>
       <c r="AI20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ20" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AK20" t="s">
         <v>74</v>
@@ -6693,13 +6754,13 @@
         <v>64</v>
       </c>
       <c r="AM20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AN20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AO20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AP20">
         <v>10</v>
@@ -6889,7 +6950,7 @@
         <v>64</v>
       </c>
       <c r="Z22" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA22" t="s">
         <v>64</v>
@@ -6916,10 +6977,10 @@
         <v>86</v>
       </c>
       <c r="AJ22" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AK22" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AL22" t="s">
         <v>64</v>
@@ -6931,7 +6992,7 @@
         <v>75</v>
       </c>
       <c r="AO22" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AP22">
         <v>17</v>
@@ -7141,7 +7202,7 @@
         <v>64</v>
       </c>
       <c r="DY22" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="FP22" t="s">
         <v>70</v>
@@ -7334,7 +7395,7 @@
         <v>64</v>
       </c>
       <c r="Z24" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA24" t="s">
         <v>64</v>
@@ -7376,7 +7437,7 @@
         <v>87</v>
       </c>
       <c r="AO24" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AP24">
         <v>11</v>
@@ -7692,7 +7753,7 @@
         <v>64</v>
       </c>
       <c r="Z26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA26" t="s">
         <v>64</v>
@@ -7713,10 +7774,10 @@
         <v>73</v>
       </c>
       <c r="AH26" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI26" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ26" t="s">
         <v>74</v>
@@ -7863,7 +7924,7 @@
         <v>64</v>
       </c>
       <c r="DY26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="FP26" t="s">
         <v>70</v>
@@ -7932,7 +7993,7 @@
         <v>16</v>
       </c>
       <c r="GR26" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="GS26" t="s">
         <v>64</v>
@@ -8047,7 +8108,7 @@
         <v>86</v>
       </c>
       <c r="AJ28" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AK28" t="s">
         <v>74</v>
@@ -8140,7 +8201,7 @@
         <v>79</v>
       </c>
       <c r="BY28" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="BZ28" t="s">
         <v>70</v>
@@ -8224,7 +8285,7 @@
         <v>95</v>
       </c>
       <c r="DV28" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="DW28" t="s">
         <v>70</v>
@@ -8284,7 +8345,7 @@
         <v>183</v>
       </c>
       <c r="FO28" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="FP28" t="s">
         <v>64</v>
@@ -8311,7 +8372,7 @@
         <v>64</v>
       </c>
       <c r="IB28" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="29" spans="1:236" x14ac:dyDescent="0.2">
@@ -8553,10 +8614,10 @@
         <v>73</v>
       </c>
       <c r="AH32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ32" t="s">
         <v>74</v>
@@ -8892,10 +8953,10 @@
         <v>76</v>
       </c>
       <c r="FN32" t="s">
+        <v>588</v>
+      </c>
+      <c r="FO32" t="s">
         <v>589</v>
-      </c>
-      <c r="FO32" t="s">
-        <v>590</v>
       </c>
       <c r="FP32" t="s">
         <v>70</v>
@@ -9245,10 +9306,10 @@
         <v>73</v>
       </c>
       <c r="AH36" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI36" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ36" t="s">
         <v>74</v>
@@ -9266,7 +9327,7 @@
         <v>75</v>
       </c>
       <c r="AO36" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AP36">
         <v>11</v>
@@ -9533,10 +9594,10 @@
         <v>76</v>
       </c>
       <c r="FN36" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="FO36" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="FP36" t="s">
         <v>70</v>
@@ -9711,7 +9772,7 @@
         <v>64</v>
       </c>
       <c r="Z38" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA38" t="s">
         <v>64</v>
@@ -10130,7 +10191,7 @@
         <v>64</v>
       </c>
       <c r="Z42" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AA42" t="s">
         <v>64</v>
@@ -10151,7 +10212,7 @@
         <v>86</v>
       </c>
       <c r="AH42" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI42" t="s">
         <v>86</v>
@@ -10160,7 +10221,7 @@
         <v>74</v>
       </c>
       <c r="AK42" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AL42" t="s">
         <v>64</v>
@@ -10172,7 +10233,7 @@
         <v>75</v>
       </c>
       <c r="AO42" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AP42">
         <v>15</v>
@@ -10428,7 +10489,7 @@
         <v>64</v>
       </c>
       <c r="Z44" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA44" t="s">
         <v>64</v>
@@ -10545,7 +10606,7 @@
         <v>64</v>
       </c>
       <c r="DY44" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="FP44" t="s">
         <v>70</v>
@@ -10853,7 +10914,7 @@
         <v>64</v>
       </c>
       <c r="Z48" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA48" t="s">
         <v>64</v>
@@ -10880,10 +10941,10 @@
         <v>86</v>
       </c>
       <c r="AJ48" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AK48" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AL48" t="s">
         <v>64</v>
@@ -11105,7 +11166,7 @@
         <v>64</v>
       </c>
       <c r="DY48" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="FP48" t="s">
         <v>70</v>
@@ -11186,7 +11247,7 @@
         <v>222</v>
       </c>
       <c r="HC48" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="HD48" t="s">
         <v>70</v>
@@ -11385,16 +11446,16 @@
         <v>73</v>
       </c>
       <c r="AH50" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI50" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ50" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AK50" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AL50" t="s">
         <v>70</v>
@@ -11544,7 +11605,7 @@
         <v>95</v>
       </c>
       <c r="DV50" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="DW50" t="s">
         <v>70</v>
@@ -11619,10 +11680,10 @@
         <v>1</v>
       </c>
       <c r="FN50" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="FO50" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="FP50" t="s">
         <v>64</v>
@@ -11643,7 +11704,7 @@
         <v>245</v>
       </c>
       <c r="HC50" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="HD50" t="s">
         <v>70</v>
@@ -11837,7 +11898,7 @@
         <v>64</v>
       </c>
       <c r="Z54" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA54" t="s">
         <v>64</v>
@@ -11858,10 +11919,10 @@
         <v>73</v>
       </c>
       <c r="AH54" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI54" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ54" t="s">
         <v>74</v>
@@ -12029,7 +12090,7 @@
         <v>64</v>
       </c>
       <c r="DY54" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="FP54" t="s">
         <v>70</v>
@@ -12159,7 +12220,7 @@
         <v>64</v>
       </c>
       <c r="Z56" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA56" t="s">
         <v>64</v>
@@ -12180,10 +12241,10 @@
         <v>73</v>
       </c>
       <c r="AH56" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI56" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ56" t="s">
         <v>74</v>
@@ -12201,7 +12262,7 @@
         <v>75</v>
       </c>
       <c r="AO56" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AP56">
         <v>14</v>
@@ -12529,7 +12590,7 @@
         <v>64</v>
       </c>
       <c r="Z58" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA58" t="s">
         <v>64</v>
@@ -12550,10 +12611,10 @@
         <v>73</v>
       </c>
       <c r="AH58" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI58" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ58" t="s">
         <v>74</v>
@@ -12625,7 +12686,7 @@
         <v>64</v>
       </c>
       <c r="DY58" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="FP58" t="s">
         <v>70</v>
@@ -12764,7 +12825,7 @@
         <v>64</v>
       </c>
       <c r="Z60" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA60" t="s">
         <v>64</v>
@@ -13080,7 +13141,7 @@
         <v>64</v>
       </c>
       <c r="Z62" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA62" t="s">
         <v>64</v>
@@ -13098,10 +13159,10 @@
         <v>73</v>
       </c>
       <c r="AH62" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI62" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ62" t="s">
         <v>74</v>
@@ -13314,7 +13375,7 @@
         <v>64</v>
       </c>
       <c r="DY62" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="FP62" t="s">
         <v>70</v>
@@ -13939,7 +14000,7 @@
         <v>86</v>
       </c>
       <c r="AJ70" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AK70" t="s">
         <v>74</v>
@@ -14278,7 +14339,7 @@
         <v>76</v>
       </c>
       <c r="FO70" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="FP70" t="s">
         <v>70</v>
@@ -14513,7 +14574,7 @@
         <v>64</v>
       </c>
       <c r="Z72" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA72" t="s">
         <v>64</v>
@@ -14534,10 +14595,10 @@
         <v>73</v>
       </c>
       <c r="AH72" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI72" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ72" t="s">
         <v>74</v>
@@ -14555,7 +14616,7 @@
         <v>75</v>
       </c>
       <c r="AO72" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AP72">
         <v>17</v>
@@ -14765,7 +14826,7 @@
         <v>64</v>
       </c>
       <c r="DY72" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="FP72" t="s">
         <v>70</v>
@@ -15150,7 +15211,7 @@
         <v>64</v>
       </c>
       <c r="Z80" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA80" t="s">
         <v>64</v>
@@ -15171,10 +15232,10 @@
         <v>73</v>
       </c>
       <c r="AH80" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI80" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ80" t="s">
         <v>74</v>
@@ -15192,7 +15253,7 @@
         <v>75</v>
       </c>
       <c r="AO80" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AP80">
         <v>12</v>
@@ -15342,7 +15403,7 @@
         <v>64</v>
       </c>
       <c r="DY80" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="FP80" t="s">
         <v>70</v>
@@ -15584,7 +15645,7 @@
         <v>64</v>
       </c>
       <c r="Z84" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA84" t="s">
         <v>64</v>
@@ -15605,10 +15666,10 @@
         <v>73</v>
       </c>
       <c r="AH84" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI84" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ84" t="s">
         <v>74</v>
@@ -15680,7 +15741,7 @@
         <v>64</v>
       </c>
       <c r="DY84" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="FP84" t="s">
         <v>70</v>
@@ -15840,7 +15901,7 @@
         <v>64</v>
       </c>
       <c r="Z86" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA86" t="s">
         <v>64</v>
@@ -15861,7 +15922,7 @@
         <v>86</v>
       </c>
       <c r="AH86" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI86" t="s">
         <v>86</v>
@@ -15870,7 +15931,7 @@
         <v>74</v>
       </c>
       <c r="AK86" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AL86" t="s">
         <v>64</v>
@@ -15882,7 +15943,7 @@
         <v>75</v>
       </c>
       <c r="AO86" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AP86">
         <v>17</v>
@@ -16029,7 +16090,7 @@
         <v>64</v>
       </c>
       <c r="DY86" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="FP86" t="s">
         <v>70</v>
@@ -16852,7 +16913,7 @@
         <v>64</v>
       </c>
       <c r="Z100" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA100" t="s">
         <v>64</v>
@@ -16873,10 +16934,10 @@
         <v>331</v>
       </c>
       <c r="AH100" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI100" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ100" t="s">
         <v>74</v>
@@ -16894,7 +16955,7 @@
         <v>75</v>
       </c>
       <c r="AO100" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AP100">
         <v>17</v>
@@ -17053,7 +17114,7 @@
         <v>64</v>
       </c>
       <c r="DY100" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="FP100" t="s">
         <v>70</v>
@@ -17388,7 +17449,7 @@
         <v>64</v>
       </c>
       <c r="Z104" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA104" t="s">
         <v>64</v>
@@ -17409,10 +17470,10 @@
         <v>73</v>
       </c>
       <c r="AH104" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI104" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ104" t="s">
         <v>74</v>
@@ -17430,7 +17491,7 @@
         <v>75</v>
       </c>
       <c r="AO104" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AP104">
         <v>19</v>
@@ -17502,7 +17563,7 @@
         <v>64</v>
       </c>
       <c r="DY104" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="FP104" t="s">
         <v>70</v>
@@ -17805,19 +17866,19 @@
         <v>72</v>
       </c>
       <c r="AG110" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AH110" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI110" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ110" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AK110" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AL110" t="s">
         <v>64</v>
@@ -17886,7 +17947,7 @@
         <v>118</v>
       </c>
       <c r="BY110" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="BZ110" t="s">
         <v>64</v>
@@ -18206,7 +18267,7 @@
         <v>73</v>
       </c>
       <c r="AH114" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI114" t="s">
         <v>86</v>
@@ -18215,7 +18276,7 @@
         <v>74</v>
       </c>
       <c r="AK114" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AL114" t="s">
         <v>64</v>
@@ -18227,7 +18288,7 @@
         <v>75</v>
       </c>
       <c r="AO114" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AP114">
         <v>14</v>
@@ -18368,7 +18429,7 @@
         <v>16</v>
       </c>
       <c r="GR114" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="GS114" t="s">
         <v>64</v>
@@ -18744,7 +18805,7 @@
         <v>10</v>
       </c>
       <c r="FO116" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="FP116" t="s">
         <v>64</v>
@@ -19045,13 +19106,13 @@
         <v>101</v>
       </c>
       <c r="AG124" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AH124" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI124" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ124" t="s">
         <v>74</v>
@@ -19069,7 +19130,7 @@
         <v>361</v>
       </c>
       <c r="AO124" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AP124">
         <v>14</v>
@@ -19426,7 +19487,7 @@
         <v>16</v>
       </c>
       <c r="GR124" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="GS124" t="s">
         <v>64</v>
@@ -19661,10 +19722,10 @@
         <v>73</v>
       </c>
       <c r="AH126" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI126" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ126" t="s">
         <v>74</v>
@@ -19682,7 +19743,7 @@
         <v>75</v>
       </c>
       <c r="AO126" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AP126">
         <v>15</v>
@@ -19829,7 +19890,7 @@
         <v>0</v>
       </c>
       <c r="DV126" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="DW126" t="s">
         <v>70</v>
@@ -20487,7 +20548,7 @@
         <v>76</v>
       </c>
       <c r="FN128" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="FP128" t="s">
         <v>64</v>
@@ -20910,7 +20971,7 @@
         <v>64</v>
       </c>
       <c r="Z134" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA134" t="s">
         <v>64</v>
@@ -20937,10 +20998,10 @@
         <v>86</v>
       </c>
       <c r="AJ134" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AK134" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AL134" t="s">
         <v>64</v>
@@ -21162,7 +21223,7 @@
         <v>64</v>
       </c>
       <c r="DY134" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="FP134" t="s">
         <v>70</v>
@@ -21445,10 +21506,10 @@
         <v>73</v>
       </c>
       <c r="AH136" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI136" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ136" t="s">
         <v>74</v>
@@ -21466,7 +21527,7 @@
         <v>75</v>
       </c>
       <c r="AO136" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AP136">
         <v>11</v>
@@ -21989,10 +22050,10 @@
         <v>73</v>
       </c>
       <c r="AH138" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AI138" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AJ138" t="s">
         <v>74</v>
@@ -22001,13 +22062,13 @@
         <v>74</v>
       </c>
       <c r="AM138" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AN138" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AO138" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AP138">
         <v>14</v>
@@ -22289,7 +22350,7 @@
         <v>42</v>
       </c>
       <c r="FN138" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="FP138" t="s">
         <v>70</v>
@@ -22544,10 +22605,10 @@
         <v>73</v>
       </c>
       <c r="AH144" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI144" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ144" t="s">
         <v>74</v>
@@ -22565,7 +22626,7 @@
         <v>75</v>
       </c>
       <c r="AO144" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AP144">
         <v>14</v>
@@ -22667,7 +22728,7 @@
         <v>90</v>
       </c>
       <c r="BX144" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="BY144" t="s">
         <v>428</v>
@@ -22844,10 +22905,10 @@
         <v>58</v>
       </c>
       <c r="FN144" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="FO144" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="FP144" t="s">
         <v>70</v>
@@ -23001,7 +23062,7 @@
         <v>86</v>
       </c>
       <c r="AI146" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ146" t="s">
         <v>74</v>
@@ -23019,7 +23080,7 @@
         <v>75</v>
       </c>
       <c r="AO146" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AP146">
         <v>11</v>
@@ -23534,10 +23595,10 @@
         <v>73</v>
       </c>
       <c r="AH156" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AI156" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AJ156" t="s">
         <v>74</v>
@@ -23765,10 +23826,10 @@
         <v>58</v>
       </c>
       <c r="FN156" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="FO156" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="FP156" t="s">
         <v>64</v>
@@ -23964,7 +24025,7 @@
         <v>1</v>
       </c>
       <c r="BY158" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="BZ158" t="s">
         <v>64</v>
@@ -24151,7 +24212,7 @@
         <v>87</v>
       </c>
       <c r="AO160" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AP160">
         <v>20</v>
@@ -24460,7 +24521,7 @@
         <v>445</v>
       </c>
       <c r="HC160" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="HD160" t="s">
         <v>64</v>
@@ -24833,10 +24894,10 @@
         <v>73</v>
       </c>
       <c r="AH168" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AI168" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ168" t="s">
         <v>74</v>
@@ -24893,7 +24954,7 @@
         <v>3</v>
       </c>
       <c r="BY168" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="BZ168" t="s">
         <v>64</v>
@@ -25053,10 +25114,10 @@
         <v>73</v>
       </c>
       <c r="AH170" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI170" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ170" t="s">
         <v>74</v>
@@ -25119,7 +25180,7 @@
         <v>10</v>
       </c>
       <c r="BY170" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="BZ170" t="s">
         <v>64</v>
@@ -25351,7 +25412,7 @@
         <v>86</v>
       </c>
       <c r="AH172" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI172" t="s">
         <v>86</v>
@@ -25360,7 +25421,7 @@
         <v>74</v>
       </c>
       <c r="AK172" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AL172" t="s">
         <v>64</v>
@@ -25372,7 +25433,7 @@
         <v>75</v>
       </c>
       <c r="AO172" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AP172">
         <v>12</v>
@@ -25664,7 +25725,7 @@
         <v>86</v>
       </c>
       <c r="AJ174" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AK174" t="s">
         <v>74</v>
@@ -25968,10 +26029,10 @@
         <v>73</v>
       </c>
       <c r="AH176" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI176" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ176" t="s">
         <v>74</v>
@@ -25989,7 +26050,7 @@
         <v>75</v>
       </c>
       <c r="AO176" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AP176">
         <v>14</v>
@@ -26716,10 +26777,10 @@
         <v>73</v>
       </c>
       <c r="AH184" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI184" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ184" t="s">
         <v>74</v>
@@ -26737,7 +26798,7 @@
         <v>75</v>
       </c>
       <c r="AO184" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AP184">
         <v>16</v>
@@ -27529,10 +27590,10 @@
         <v>73</v>
       </c>
       <c r="AH190" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AI190" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AJ190" t="s">
         <v>74</v>
@@ -27984,10 +28045,10 @@
         <v>73</v>
       </c>
       <c r="AH194" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI194" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ194" t="s">
         <v>74</v>
@@ -28005,7 +28066,7 @@
         <v>75</v>
       </c>
       <c r="AO194" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AP194">
         <v>17</v>
@@ -28062,7 +28123,7 @@
         <v>123</v>
       </c>
       <c r="BY194" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="BZ194" t="s">
         <v>64</v>
@@ -28501,7 +28562,7 @@
         <v>86</v>
       </c>
       <c r="AJ202" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AK202" t="s">
         <v>74</v>
@@ -28516,7 +28577,7 @@
         <v>75</v>
       </c>
       <c r="AO202" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AP202">
         <v>10</v>
@@ -28864,13 +28925,13 @@
         <v>501</v>
       </c>
       <c r="HC202" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="HD202" t="s">
         <v>70</v>
       </c>
       <c r="HF202" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="HG202" t="s">
         <v>196</v>
@@ -28885,7 +28946,7 @@
         <v>70</v>
       </c>
       <c r="HN202" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="HO202" t="s">
         <v>196</v>
@@ -29087,7 +29148,7 @@
         <v>86</v>
       </c>
       <c r="AJ204" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AK204" t="s">
         <v>74</v>
@@ -29102,7 +29163,7 @@
         <v>75</v>
       </c>
       <c r="AO204" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AP204">
         <v>11</v>
@@ -29530,7 +29591,7 @@
         <v>73</v>
       </c>
       <c r="AH208" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AI208" t="s">
         <v>86</v>
@@ -29695,7 +29756,7 @@
         <v>91</v>
       </c>
       <c r="DA208" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="DC208" t="s">
         <v>70</v>

--- a/data/LIGHT4DEAF_Neurocognition_Avril_2020_1_FULL_ADULTES_20200504.xlsx
+++ b/data/LIGHT4DEAF_Neurocognition_Avril_2020_1_FULL_ADULTES_20200504.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marc/py/_stat/light4deaf/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796D4C79-8815-BA41-9947-44E851AB169F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AD4767-2357-414C-865C-6C883B8DEB59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="1240" windowWidth="25020" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="500" windowWidth="25020" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LIGHT4DEAF_Neurocognition_Avril" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3785" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3785" uniqueCount="729">
   <si>
     <t xml:space="preserve"> ID_CENTRE</t>
   </si>
@@ -2086,9 +2086,6 @@
     <t>Rappel immédiat - Score brut</t>
   </si>
   <si>
-    <t>Rappel immédiat - Note centile</t>
-  </si>
-  <si>
     <t>Rappel Libre 1 - Score brut</t>
   </si>
   <si>
@@ -2098,54 +2095,24 @@
     <t>RL + Indice 1 - Score brut</t>
   </si>
   <si>
-    <t>RL + Indice 1 - Note centile</t>
-  </si>
-  <si>
     <t>RL + Indice 1 - Ecart type</t>
   </si>
   <si>
-    <t>Rappel libre 2 - Score brut</t>
-  </si>
-  <si>
-    <t>Rappel libre 2 - Ecart type</t>
-  </si>
-  <si>
     <t>RL + Indice 2 - Score brut</t>
   </si>
   <si>
-    <t>RL + Indice 2 - Note centile</t>
-  </si>
-  <si>
     <t>RL + Indice 2 - Ecart type</t>
   </si>
   <si>
-    <t>Rappel libre 3 - Score brut</t>
-  </si>
-  <si>
-    <t>Rappel libre 3 - Ecart type</t>
-  </si>
-  <si>
     <t>RL + Indice 3 - Score brut</t>
   </si>
   <si>
-    <t>RL + Indice 3 - Note centile</t>
-  </si>
-  <si>
     <t>RL + Indice 3 - Ecart type</t>
   </si>
   <si>
-    <t>Rappel libre différé - Score brut</t>
-  </si>
-  <si>
-    <t>Rappel libre différé - Ecart type</t>
-  </si>
-  <si>
     <t>RL + Indice différé - Score brut</t>
   </si>
   <si>
-    <t>RL + Indice différé - Note centile</t>
-  </si>
-  <si>
     <t>RL + Indice différé - Ecart type</t>
   </si>
   <si>
@@ -2207,6 +2174,42 @@
   </si>
   <si>
     <t>Rang percentile - Nombre d’erreurs non corrigées (Int-déno)</t>
+  </si>
+  <si>
+    <t>Autre commentaire RLRI</t>
+  </si>
+  <si>
+    <t>Rappel immédiat - Note percentile</t>
+  </si>
+  <si>
+    <t>RL + Indice 1 - Note percentile</t>
+  </si>
+  <si>
+    <t>Rappel Libre 2 - Ecart type</t>
+  </si>
+  <si>
+    <t>Rappel Libre 2 - Score brut</t>
+  </si>
+  <si>
+    <t>RL + Indice 2 - Note percentile</t>
+  </si>
+  <si>
+    <t>Rappel Libre 3 - Score brut</t>
+  </si>
+  <si>
+    <t>Rappel Libre 3 - Ecart type</t>
+  </si>
+  <si>
+    <t>RL + Indice 3 - Note percentile</t>
+  </si>
+  <si>
+    <t>Rappel Libre différé - Score brut</t>
+  </si>
+  <si>
+    <t>Rappel Libre différé - Ecart type</t>
+  </si>
+  <si>
+    <t>RL + Indice différé - Note percentile</t>
   </si>
 </sst>
 </file>
@@ -3087,8 +3090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IB239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CK1" workbookViewId="0">
-      <selection activeCell="DA5" sqref="DA5"/>
+    <sheetView tabSelected="1" topLeftCell="GI1" workbookViewId="0">
+      <selection activeCell="GN1" sqref="GN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3121,6 +3124,8 @@
     <col min="81" max="81" width="34.6640625" customWidth="1"/>
     <col min="82" max="82" width="21.83203125" customWidth="1"/>
     <col min="93" max="93" width="25.5" customWidth="1"/>
+    <col min="99" max="99" width="19.1640625" customWidth="1"/>
+    <col min="100" max="100" width="26.1640625" customWidth="1"/>
     <col min="106" max="106" width="22.6640625" customWidth="1"/>
     <col min="110" max="110" width="13.5" customWidth="1"/>
     <col min="111" max="111" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -3129,6 +3134,30 @@
     <col min="116" max="116" width="40.6640625" customWidth="1"/>
     <col min="119" max="119" width="15.6640625" customWidth="1"/>
     <col min="122" max="122" width="32.83203125" customWidth="1"/>
+    <col min="172" max="172" width="23.5" customWidth="1"/>
+    <col min="174" max="174" width="16.6640625" customWidth="1"/>
+    <col min="175" max="175" width="20.6640625" customWidth="1"/>
+    <col min="176" max="176" width="26.83203125" customWidth="1"/>
+    <col min="177" max="177" width="27" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="23" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="29.83203125" customWidth="1"/>
+    <col min="183" max="183" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="21.5" customWidth="1"/>
+    <col min="186" max="186" width="26.6640625" customWidth="1"/>
+    <col min="188" max="188" width="23.6640625" customWidth="1"/>
+    <col min="189" max="189" width="24.83203125" customWidth="1"/>
+    <col min="190" max="190" width="20.1640625" customWidth="1"/>
+    <col min="191" max="191" width="28.6640625" customWidth="1"/>
+    <col min="192" max="192" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="31.5" customWidth="1"/>
+    <col min="195" max="195" width="28" customWidth="1"/>
+    <col min="196" max="196" width="30" customWidth="1"/>
+    <col min="197" max="197" width="25.5" customWidth="1"/>
+    <col min="200" max="200" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:236" x14ac:dyDescent="0.2">
@@ -3376,79 +3405,79 @@
         <v>639</v>
       </c>
       <c r="CD1" s="3" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="CE1" s="3" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="CF1" s="3" t="s">
         <v>640</v>
       </c>
       <c r="CG1" s="3" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="CH1" s="3" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="CI1" s="3" t="s">
         <v>641</v>
       </c>
       <c r="CJ1" s="3" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="CK1" s="3" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="CL1" s="3" t="s">
         <v>642</v>
       </c>
       <c r="CM1" s="3" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="CN1" s="3" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="CO1" s="3" t="s">
         <v>643</v>
       </c>
       <c r="CP1" s="3" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="CQ1" s="3" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="CR1" s="3" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="CS1" s="3" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="CT1" s="3" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="CU1" s="3" t="s">
         <v>644</v>
       </c>
       <c r="CV1" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="CW1" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="CX1" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="CY1" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="CZ1" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="CW1" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="CX1" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="CY1" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="CZ1" s="3" t="s">
-        <v>727</v>
       </c>
       <c r="DA1" s="3" t="s">
         <v>39</v>
       </c>
       <c r="DB1" s="3" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="DC1" s="5" t="s">
         <v>40</v>
@@ -3661,74 +3690,74 @@
         <v>686</v>
       </c>
       <c r="FU1" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="FV1" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="FV1" s="4" t="s">
+      <c r="FW1" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="FW1" s="4" t="s">
+      <c r="FX1" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="FX1" s="4" t="s">
+      <c r="FY1" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="FZ1" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="FY1" s="4" t="s">
+      <c r="GA1" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="GB1" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="GC1" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="FZ1" s="4" t="s">
+      <c r="GD1" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="GE1" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="GA1" s="4" t="s">
+      <c r="GF1" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="GG1" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="GH1" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="GB1" s="4" t="s">
+      <c r="GI1" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="GJ1" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="GC1" s="4" t="s">
+      <c r="GK1" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="GL1" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="GM1" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="GD1" s="4" t="s">
+      <c r="GN1" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="GO1" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="GE1" s="4" t="s">
+      <c r="GP1" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="GF1" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="GG1" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="GH1" s="4" t="s">
-        <v>700</v>
-      </c>
-      <c r="GI1" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="GJ1" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="GK1" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="GL1" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="GM1" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="GN1" s="4" t="s">
-        <v>706</v>
-      </c>
-      <c r="GO1" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="GP1" s="4" t="s">
-        <v>708</v>
-      </c>
       <c r="GQ1" s="4"/>
-      <c r="GR1" s="7" t="s">
-        <v>37</v>
+      <c r="GR1" s="4" t="s">
+        <v>717</v>
       </c>
       <c r="GS1" s="7" t="s">
         <v>543</v>

--- a/data/LIGHT4DEAF_Neurocognition_Avril_2020_1_FULL_ADULTES_20200504.xlsx
+++ b/data/LIGHT4DEAF_Neurocognition_Avril_2020_1_FULL_ADULTES_20200504.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marc/py/_stat/light4deaf/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4321AACD-63A9-CA44-8A25-79731AC0B33B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02654522-D87D-2A4D-95DB-32AC9D2B6C35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="500" windowWidth="25020" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="460" windowWidth="25020" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LIGHT4DEAF_Neurocognition_Avril" sheetId="1" r:id="rId1"/>
@@ -1930,9 +1930,6 @@
     <t>TMT Commentaire</t>
   </si>
   <si>
-    <t>TMT Autre commentaire</t>
-  </si>
-  <si>
     <t>Nombre d'années d'études</t>
   </si>
   <si>
@@ -2210,6 +2207,9 @@
   </si>
   <si>
     <t>Autre commentaire TAP</t>
+  </si>
+  <si>
+    <t>Autre commentaire TMT</t>
   </si>
 </sst>
 </file>
@@ -3090,8 +3090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IB239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FI1" workbookViewId="0">
-      <selection activeCell="DZ1" sqref="DZ1"/>
+    <sheetView tabSelected="1" topLeftCell="DL1" workbookViewId="0">
+      <selection activeCell="DV1" sqref="DV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3297,7 +3297,7 @@
         <v>20</v>
       </c>
       <c r="AP1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AQ1" s="4" t="s">
         <v>21</v>
@@ -3414,82 +3414,82 @@
         <v>22</v>
       </c>
       <c r="CC1" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="CD1" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="CE1" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="CF1" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="CD1" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CG1" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="CH1" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="CI1" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="CJ1" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="CK1" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="CL1" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="CM1" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="CF1" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="CG1" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="CH1" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="CI1" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="CJ1" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="CK1" s="3" t="s">
+      <c r="CN1" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="CO1" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="CP1" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="CQ1" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="CR1" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="CL1" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="CM1" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="CN1" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="CO1" s="3" t="s">
+      <c r="CS1" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="CT1" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="CU1" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="CP1" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="CQ1" s="3" t="s">
+      <c r="CV1" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="CR1" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="CS1" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="CT1" s="3" t="s">
+      <c r="CW1" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="CX1" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="CU1" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="CV1" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="CW1" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="CX1" s="3" t="s">
+      <c r="CY1" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="CY1" s="3" t="s">
+      <c r="CZ1" s="3" t="s">
         <v>714</v>
-      </c>
-      <c r="CZ1" s="3" t="s">
-        <v>715</v>
       </c>
       <c r="DA1" s="3" t="s">
         <v>38</v>
       </c>
       <c r="DB1" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="DC1" s="5" t="s">
         <v>39</v>
@@ -3513,7 +3513,7 @@
         <v>623</v>
       </c>
       <c r="DJ1" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="DK1" s="5" t="s">
         <v>627</v>
@@ -3549,7 +3549,7 @@
         <v>634</v>
       </c>
       <c r="DV1" s="5" t="s">
-        <v>635</v>
+        <v>728</v>
       </c>
       <c r="DW1" s="6" t="s">
         <v>40</v>
@@ -3561,130 +3561,130 @@
         <v>22</v>
       </c>
       <c r="DZ1" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="EA1" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="EA1" s="6" t="s">
+      <c r="EB1" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="EB1" s="6" t="s">
+      <c r="EC1" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="EC1" s="6" t="s">
+      <c r="ED1" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="ED1" s="6" t="s">
+      <c r="EE1" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="EE1" s="6" t="s">
+      <c r="EF1" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="EF1" s="6" t="s">
+      <c r="EG1" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="EG1" s="6" t="s">
+      <c r="EH1" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="EH1" s="6" t="s">
+      <c r="EI1" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="EI1" s="6" t="s">
+      <c r="EJ1" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="EJ1" s="6" t="s">
+      <c r="EK1" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="EK1" s="6" t="s">
+      <c r="EL1" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="EL1" s="6" t="s">
+      <c r="EM1" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="EM1" s="6" t="s">
+      <c r="EN1" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="EN1" s="6" t="s">
+      <c r="EO1" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="EO1" s="6" t="s">
+      <c r="EP1" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="EP1" s="6" t="s">
+      <c r="EQ1" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="EQ1" s="6" t="s">
+      <c r="ER1" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="ER1" s="6" t="s">
+      <c r="ES1" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="ES1" s="6" t="s">
+      <c r="ET1" s="6" t="s">
         <v>664</v>
-      </c>
-      <c r="ET1" s="6" t="s">
-        <v>665</v>
       </c>
       <c r="EU1" s="6" t="s">
         <v>27</v>
       </c>
       <c r="EV1" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="EW1" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="EW1" s="6" t="s">
+      <c r="EX1" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="EX1" s="6" t="s">
+      <c r="EY1" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="EY1" s="6" t="s">
+      <c r="EZ1" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="EZ1" s="6" t="s">
+      <c r="FA1" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="FA1" s="6" t="s">
+      <c r="FB1" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="FB1" s="6" t="s">
+      <c r="FC1" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="FC1" s="6" t="s">
+      <c r="FD1" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="FD1" s="6" t="s">
+      <c r="FE1" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="FE1" s="6" t="s">
+      <c r="FF1" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="FF1" s="6" t="s">
+      <c r="FG1" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="FG1" s="6" t="s">
+      <c r="FH1" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="FH1" s="6" t="s">
+      <c r="FI1" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="FI1" s="6" t="s">
+      <c r="FJ1" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="FJ1" s="6" t="s">
+      <c r="FK1" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="FK1" s="6" t="s">
+      <c r="FL1" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="FL1" s="6" t="s">
+      <c r="FM1" s="6" t="s">
         <v>682</v>
-      </c>
-      <c r="FM1" s="6" t="s">
-        <v>683</v>
       </c>
       <c r="FN1" s="6" t="s">
         <v>38</v>
       </c>
       <c r="FO1" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="FP1" s="8" t="s">
         <v>41</v>
@@ -3696,80 +3696,80 @@
         <v>22</v>
       </c>
       <c r="FS1" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="FT1" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="FT1" s="4" t="s">
+      <c r="FU1" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="FV1" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="FU1" s="4" t="s">
+      <c r="FW1" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="FX1" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="FY1" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="FV1" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="FW1" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="FX1" s="4" t="s">
+      <c r="FZ1" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="FY1" s="4" t="s">
+      <c r="GA1" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="GB1" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="FZ1" s="4" t="s">
+      <c r="GC1" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="GA1" s="4" t="s">
+      <c r="GD1" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="GB1" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="GC1" s="4" t="s">
+      <c r="GE1" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="GD1" s="4" t="s">
+      <c r="GF1" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="GE1" s="4" t="s">
+      <c r="GG1" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="GH1" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="GF1" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="GG1" s="4" t="s">
+      <c r="GI1" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="GH1" s="4" t="s">
+      <c r="GJ1" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="GI1" s="4" t="s">
+      <c r="GK1" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="GJ1" s="4" t="s">
+      <c r="GL1" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="GM1" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="GK1" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="GL1" s="4" t="s">
+      <c r="GN1" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="GM1" s="4" t="s">
+      <c r="GO1" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="GN1" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="GO1" s="4" t="s">
+      <c r="GP1" s="4" t="s">
         <v>695</v>
-      </c>
-      <c r="GP1" s="4" t="s">
-        <v>696</v>
       </c>
       <c r="GQ1" s="4"/>
       <c r="GR1" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="GS1" s="7" t="s">
         <v>542</v>
@@ -4237,7 +4237,7 @@
         <v>64</v>
       </c>
       <c r="CN4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="DC4" t="s">
         <v>58</v>

--- a/data/LIGHT4DEAF_Neurocognition_Avril_2020_1_FULL_ADULTES_20200504.xlsx
+++ b/data/LIGHT4DEAF_Neurocognition_Avril_2020_1_FULL_ADULTES_20200504.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marc/py/_stat/light4deaf/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D9B63C-9A1E-144B-96F6-6AE05AA64341}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D8BFFD-18F5-C34E-8721-151B8FEE8186}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="25020" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3097,8 +3097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IB239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EQ1" workbookViewId="0">
-      <selection activeCell="EU2" sqref="EU2"/>
+    <sheetView tabSelected="1" topLeftCell="EX1" workbookViewId="0">
+      <selection activeCell="FK22" sqref="FK22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3163,6 +3163,7 @@
     <col min="149" max="149" width="33" bestFit="1" customWidth="1"/>
     <col min="150" max="150" width="29.5" bestFit="1" customWidth="1"/>
     <col min="151" max="151" width="14" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="23.6640625" customWidth="1"/>
     <col min="161" max="161" width="20.5" customWidth="1"/>
     <col min="171" max="171" width="23.6640625" customWidth="1"/>
     <col min="172" max="172" width="23.5" customWidth="1"/>
@@ -3974,6 +3975,24 @@
       <c r="ES2" s="9"/>
       <c r="ET2" s="9"/>
       <c r="EU2" s="9"/>
+      <c r="EV2" s="9"/>
+      <c r="EW2" s="9"/>
+      <c r="EX2" s="9"/>
+      <c r="EY2" s="9"/>
+      <c r="EZ2" s="9"/>
+      <c r="FA2" s="9"/>
+      <c r="FB2" s="9"/>
+      <c r="FC2" s="9"/>
+      <c r="FD2" s="9"/>
+      <c r="FE2" s="9"/>
+      <c r="FF2" s="9"/>
+      <c r="FG2" s="9"/>
+      <c r="FH2" s="9"/>
+      <c r="FI2" s="9"/>
+      <c r="FJ2" s="9"/>
+      <c r="FK2" s="9"/>
+      <c r="FL2" s="9"/>
+      <c r="FM2" s="9"/>
       <c r="HU2" s="1">
         <v>43264</v>
       </c>
